--- a/output/5Y_P45_KFSDIV.xlsx
+++ b/output/5Y_P45_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6447</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.486</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>16.1958</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>16.4264</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>17.107</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>16.8894</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>16.4004</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3877</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6367</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0061</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.835</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.4216</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.2404</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.382</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>11.9583</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2036</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.9136</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.4338</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.9657</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.3568</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.2487</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.3991</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.5985</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.6955</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.3398</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.8469</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.129</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.716</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.4613</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.6545</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2345</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.1636</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>11.8145</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>11.2352</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>10.8241</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>11.2543</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>10.5675</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>9.967000000000001</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>10.0064</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>10.0129</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>10.4583</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>10.3341</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>9.884600000000001</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>9.967499999999999</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>10.4908</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>10.6308</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>10.3176</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>10.2392</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>9.978999999999999</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>10.1873</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>10.4058</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.2688</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.4938</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.5481</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.3262</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.462</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.5775</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.7066</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.1511</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.5294</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.9136</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6447</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.486</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>16.1958</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>16.4264</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>17.107</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>16.8894</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>16.4004</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3877</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6367</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0061</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.835</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.4216</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.2404</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.382</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>11.9583</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2036</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.9136</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.4338</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.9657</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.3568</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.2487</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.3991</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.5985</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.6955</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.3398</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.8469</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.129</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.716</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.4613</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.6545</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2345</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.1636</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>11.8145</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>11.2352</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>10.8241</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>11.2543</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>10.5675</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>9.967000000000001</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>10.0064</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>10.0129</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>10.4583</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>10.3341</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>9.884600000000001</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>9.967499999999999</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>10.4908</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>10.6308</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>10.3176</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>10.2392</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>9.978999999999999</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>10.1873</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>10.4058</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.2688</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.4938</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.5481</v>
@@ -7211,10 +7214,10 @@
         <v>548889.3887</v>
       </c>
       <c r="K55" s="1">
-        <v>610292.9885</v>
+        <v>610298.5676</v>
       </c>
       <c r="L55" s="1">
-        <v>12.0594</v>
+        <v>12.0595</v>
       </c>
       <c r="M55" s="1">
         <v>0</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.3262</v>
@@ -7264,10 +7267,10 @@
         <v>547498.0855</v>
       </c>
       <c r="K56" s="1">
-        <v>617579.1653</v>
+        <v>617584.7443</v>
       </c>
       <c r="L56" s="1">
-        <v>12.0394</v>
+        <v>12.0395</v>
       </c>
       <c r="M56" s="1">
         <v>0.25</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.462</v>
@@ -7317,10 +7320,10 @@
         <v>576190.9298</v>
       </c>
       <c r="K57" s="1">
-        <v>639027.1945</v>
+        <v>639032.7736</v>
       </c>
       <c r="L57" s="1">
-        <v>11.9736</v>
+        <v>11.9737</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.5775</v>
@@ -7370,10 +7373,10 @@
         <v>592358.5009</v>
       </c>
       <c r="K58" s="1">
-        <v>641801.3704</v>
+        <v>641806.9495</v>
       </c>
       <c r="L58" s="1">
-        <v>11.9663</v>
+        <v>11.9664</v>
       </c>
       <c r="M58" s="1">
         <v>0</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.7066</v>
@@ -7423,10 +7426,10 @@
         <v>609303.2614</v>
       </c>
       <c r="K59" s="1">
-        <v>645638.0597</v>
+        <v>645643.6388</v>
       </c>
       <c r="L59" s="1">
-        <v>11.9571</v>
+        <v>11.9572</v>
       </c>
       <c r="M59" s="1">
         <v>0.2</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.1511</v>
@@ -7476,10 +7479,10 @@
         <v>653089.284</v>
       </c>
       <c r="K60" s="1">
-        <v>648690.1555</v>
+        <v>648695.7346</v>
       </c>
       <c r="L60" s="1">
-        <v>11.9507</v>
+        <v>11.9508</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.5294</v>
@@ -7529,10 +7532,10 @@
         <v>683102.6726</v>
       </c>
       <c r="K61" s="1">
-        <v>634554.6931</v>
+        <v>634616.8217</v>
       </c>
       <c r="L61" s="1">
-        <v>11.9692</v>
+        <v>11.9704</v>
       </c>
       <c r="M61" s="1">
         <v>0</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.9136</v>
@@ -7582,10 +7585,10 @@
         <v>661059.3572</v>
       </c>
       <c r="K62" s="1">
-        <v>624501.0988</v>
+        <v>624603.433</v>
       </c>
       <c r="L62" s="1">
-        <v>11.9762</v>
+        <v>11.9781</v>
       </c>
       <c r="M62" s="1">
         <v>0.5</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6447</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.486</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>16.1958</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>16.4264</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>17.107</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>16.8894</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>16.4004</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3877</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6367</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0061</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.835</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.4216</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.2404</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.382</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>11.9583</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2036</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.9136</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.4338</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.9657</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.3568</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.2487</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.3991</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.5985</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.6955</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.3398</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.8469</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.129</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.716</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.4613</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.6545</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2345</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.1636</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>11.8145</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>11.2352</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>10.8241</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>11.2543</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>10.5675</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>9.967000000000001</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>10.0064</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>10.0129</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>10.4583</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>10.3341</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>9.884600000000001</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>9.967499999999999</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>10.4908</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>10.6308</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>10.3176</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>10.2392</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>9.978999999999999</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>10.1873</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>10.4058</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.2688</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.4938</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.5481</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.3262</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.462</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.5775</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.7066</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.1511</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.5294</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.9136</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6447</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.486</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>16.1958</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>16.4264</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>17.107</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>16.8894</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>16.4004</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3877</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6367</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0061</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.835</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.4216</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.2404</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.382</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>11.9583</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2036</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.9136</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.4338</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.9657</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.3568</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.2487</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.3991</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.5985</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.6955</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.3398</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.8469</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.129</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.716</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.4613</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.6545</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2345</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.1636</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>11.8145</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>11.2352</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>10.8241</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>11.2543</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>10.5675</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>9.967000000000001</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>10.0064</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>10.0129</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>10.4583</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>10.3341</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>9.884600000000001</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>9.967499999999999</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>10.4908</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>10.6308</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>10.3176</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>10.2392</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>9.978999999999999</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>10.1873</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>10.4058</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.2688</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.4938</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.5481</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.3262</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.462</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.5775</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.7066</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.1511</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.5294</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.9136</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>14.6447</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>15.486</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>16.1958</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>16.4264</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>17.107</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>16.8894</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>16.4004</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>15.3877</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>14.6367</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0061</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.835</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.4216</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.2404</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.382</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>11.9583</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2036</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.9136</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.4338</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.9657</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.3568</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.2487</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.3991</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.5985</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.6955</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.3398</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.8469</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.129</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>12.716</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.4613</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>12.6545</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2345</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.1636</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>11.8145</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>11.2352</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>10.8241</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>11.2543</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>10.5675</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>9.967000000000001</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>10.0064</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>10.0129</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>10.4583</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>10.3341</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>9.884600000000001</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>9.967499999999999</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>10.4908</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>10.6308</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>10.3176</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>10.2392</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>9.978999999999999</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>10.1873</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>10.4058</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.2688</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10.4938</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.5481</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>10.3262</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.462</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.5775</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.7066</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.1511</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>11.5294</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>10.9136</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,7 +17600,7 @@
         <v>11.8042</v>
       </c>
       <c r="D3" s="1">
-        <v>11.9762</v>
+        <v>11.9781</v>
       </c>
       <c r="E3" s="1">
         <v>11.8629</v>
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>146779.407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9227</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0584</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9183</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.918</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9179</v>
       </c>
     </row>
   </sheetData>
